--- a/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,36 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam-hand\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\hrds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1F4EE-EFA1-4944-AF35-AD73243D1355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
-    <sheet name="角色" r:id="rId8" sheetId="5"/>
-    <sheet name="角色标签数据" r:id="rId9" sheetId="6"/>
+    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
+    <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
+    <sheet name="角色" sheetId="5" r:id="rId5"/>
+    <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="420">
   <si>
     <r>
       <rPr>
@@ -2941,15 +2950,6 @@
     <t>HZERO-PLATFORM.T.role/site/default/developer</t>
   </si>
   <si>
-    <t>iam_role-15</t>
-  </si>
-  <si>
-    <t>Site Developer</t>
-  </si>
-  <si>
-    <t>HZERO.T.role/site/default/developer</t>
-  </si>
-  <si>
     <t>角色权限</t>
   </si>
   <si>
@@ -3113,13 +3113,16 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="88">
     <font>
       <sz val="12"/>
@@ -3239,354 +3242,424 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3727,7 +3800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3779,6 +3852,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3794,80 +3937,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3958,7 +4032,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4207,36 +4281,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4245,21 +4319,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="97"/>
+      <c r="E3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4370,11 +4444,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4412,19 +4486,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="97"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4448,39 +4522,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="8" width="22.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:25">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:25">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4490,13 +4571,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="67">
+      <c r="D7" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="68">
+      <c r="E7" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="69">
+      <c r="F7" s="64" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4508,10 +4589,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="70">
+      <c r="J7" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="71">
+      <c r="K7" s="66" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4532,7 +4613,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="72">
+      <c r="R7" s="67" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4557,7 +4638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4607,7 +4688,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>85</v>
       </c>
@@ -4626,8 +4707,9 @@
       <c r="J9" t="s">
         <v>79</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>88</v>
@@ -4663,7 +4745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -4682,8 +4764,9 @@
       <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -4716,7 +4799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>99</v>
       </c>
@@ -4735,8 +4818,9 @@
       <c r="J11" t="s">
         <v>79</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
@@ -4766,7 +4850,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>104</v>
       </c>
@@ -4816,7 +4900,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>107</v>
       </c>
@@ -4835,8 +4919,9 @@
       <c r="J13" t="s">
         <v>79</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
         <v>88</v>
@@ -4872,7 +4957,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>114</v>
       </c>
@@ -4891,8 +4976,9 @@
       <c r="J14" t="s">
         <v>79</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="L14" t="s">
         <v>96</v>
@@ -4925,7 +5011,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>117</v>
       </c>
@@ -4975,7 +5061,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>120</v>
       </c>
@@ -4994,8 +5080,9 @@
       <c r="J16" t="s">
         <v>79</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
         <v>88</v>
@@ -5031,7 +5118,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>124</v>
       </c>
@@ -5050,8 +5137,9 @@
       <c r="J17" t="s">
         <v>79</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
         <v>96</v>
@@ -5084,7 +5172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>127</v>
       </c>
@@ -5103,8 +5191,9 @@
       <c r="J18" t="s">
         <v>79</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="L18" t="s">
         <v>96</v>
@@ -5134,7 +5223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>131</v>
       </c>
@@ -5153,8 +5242,9 @@
       <c r="J19" t="s">
         <v>79</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="L19" t="s">
         <v>96</v>
@@ -5185,44 +5275,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:7">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5232,509 +5323,559 @@
       <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" t="s" s="73">
+      <c r="D7" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="E7" t="s" s="74">
+      <c r="E7" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="75">
+      <c r="F7" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="G7" t="s" s="76">
+      <c r="G7" s="71" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>139</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>141</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>143</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>145</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>147</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>149</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>151</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>153</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>155</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
         <v>157</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
         <v>159</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>161</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>163</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:7">
       <c r="E21" t="s">
         <v>165</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>167</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>169</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>171</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:7">
       <c r="E25" t="s">
         <v>173</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:7">
       <c r="E26" t="s">
         <v>175</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:7">
       <c r="E27" t="s">
         <v>177</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:7">
       <c r="E28" t="s">
         <v>179</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:7">
       <c r="E29" t="s">
         <v>181</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:7">
       <c r="E30" t="s">
         <v>183</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
         <v>185</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
         <v>187</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:7">
       <c r="E33" t="s">
         <v>189</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:7">
       <c r="E34" t="s">
         <v>191</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:7">
       <c r="E35" t="s">
         <v>193</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:7">
       <c r="E36" t="s">
         <v>195</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:7">
       <c r="E37" t="s">
         <v>197</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:7">
       <c r="E38" t="s">
         <v>198</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:7">
       <c r="E39" t="s">
         <v>199</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G39" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:7">
       <c r="E40" t="s">
         <v>201</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G40" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:7">
       <c r="E41" t="s">
         <v>203</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G41" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:7">
       <c r="E42" t="s">
         <v>204</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:7">
       <c r="E43" t="s">
         <v>205</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:7">
       <c r="E44" t="s">
         <v>206</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G44" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:7">
       <c r="E45" t="s">
         <v>208</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G45" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:7">
       <c r="E46" t="s">
         <v>210</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:7">
       <c r="E47" t="s">
         <v>212</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G47" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:7">
       <c r="E48" t="s">
         <v>214</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G48" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:15">
+      <c r="A1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="1:15">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5744,16 +5885,16 @@
       <c r="C7" t="s">
         <v>216</v>
       </c>
-      <c r="D7" t="s" s="77">
+      <c r="D7" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="E7" t="s" s="78">
+      <c r="E7" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="79">
+      <c r="F7" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="G7" t="s" s="80">
+      <c r="G7" s="75" t="s">
         <v>219</v>
       </c>
       <c r="H7" t="s">
@@ -5781,7 +5922,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>228</v>
       </c>
@@ -5813,7 +5954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>233</v>
       </c>
@@ -5845,7 +5986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>236</v>
       </c>
@@ -5871,7 +6012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>239</v>
       </c>
@@ -5897,7 +6038,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>241</v>
       </c>
@@ -5929,7 +6070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>244</v>
       </c>
@@ -5958,7 +6099,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>247</v>
       </c>
@@ -5987,7 +6128,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>250</v>
       </c>
@@ -6016,7 +6157,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>253</v>
       </c>
@@ -6045,7 +6186,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>256</v>
       </c>
@@ -6077,7 +6218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>259</v>
       </c>
@@ -6109,7 +6250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>262</v>
       </c>
@@ -6141,7 +6282,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>265</v>
       </c>
@@ -6167,7 +6308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>267</v>
       </c>
@@ -6199,7 +6340,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>270</v>
       </c>
@@ -6231,7 +6372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>273</v>
       </c>
@@ -6263,7 +6404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>276</v>
       </c>
@@ -6289,7 +6430,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>278</v>
       </c>
@@ -6318,7 +6459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>281</v>
       </c>
@@ -6347,7 +6488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>284</v>
       </c>
@@ -6379,7 +6520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>287</v>
       </c>
@@ -6411,7 +6552,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>290</v>
       </c>
@@ -6443,7 +6584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -6453,523 +6594,599 @@
       <c r="C31" t="s">
         <v>293</v>
       </c>
-      <c r="D31" t="s" s="81">
+      <c r="D31" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="E31" t="s" s="82">
+      <c r="E31" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F31" t="s" s="83">
+      <c r="F31" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="G31" t="s" s="84">
+      <c r="G31" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="H31" t="s" s="85">
+      <c r="H31" s="80" t="s">
         <v>298</v>
       </c>
       <c r="I31" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>300</v>
       </c>
       <c r="F32" t="s">
         <v>230</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H32">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H32" t="str">
         <f>菜单标签数据!$E$11</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I32" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:9">
       <c r="E33" t="s">
         <v>300</v>
       </c>
       <c r="F33" t="s">
         <v>230</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H33">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H33" t="str">
         <f>菜单标签数据!$E$24</f>
+        <v>iam_label-24</v>
       </c>
       <c r="I33" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:9">
       <c r="E34" t="s">
         <v>300</v>
       </c>
       <c r="F34" t="s">
         <v>230</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H34">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H34" t="str">
         <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:9">
       <c r="E35" t="s">
         <v>300</v>
       </c>
       <c r="F35" t="s">
         <v>230</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H35">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H35" t="str">
         <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I35" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:9">
       <c r="E36" t="s">
         <v>300</v>
       </c>
       <c r="F36" t="s">
         <v>230</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H36">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H36" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I36" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:9">
       <c r="E37" t="s">
         <v>300</v>
       </c>
       <c r="F37" t="s">
         <v>230</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H37">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H37" t="str">
         <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I37" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:9">
       <c r="E38" t="s">
         <v>300</v>
       </c>
       <c r="F38" t="s">
         <v>230</v>
       </c>
-      <c r="G38">
-        <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H38">
-        <f>菜单标签数据!$E$15</f>
+      <c r="G38" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H38" t="str">
+        <f>E17</f>
+        <v>iam_label-17</v>
       </c>
       <c r="I38" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:9">
       <c r="E39" t="s">
         <v>300</v>
       </c>
       <c r="F39" t="s">
         <v>230</v>
       </c>
-      <c r="G39">
-        <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H39">
-        <f>菜单标签数据!$E$16</f>
+      <c r="G39" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H39" t="str">
+        <f>E13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I39" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:9">
       <c r="E40" t="s">
         <v>300</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H40">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H40" t="str">
         <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I40" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:9">
       <c r="E41" t="s">
         <v>300</v>
       </c>
       <c r="F41" t="s">
         <v>230</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H41">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H41" t="str">
         <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I41" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:9">
       <c r="E42" t="s">
         <v>300</v>
       </c>
       <c r="F42" t="s">
         <v>230</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H42">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H42" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I42" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:9">
       <c r="E43" t="s">
         <v>300</v>
       </c>
       <c r="F43" t="s">
         <v>230</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="str">
         <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="H43">
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H43" t="str">
         <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I43" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:9">
       <c r="E44" t="s">
         <v>300</v>
       </c>
       <c r="F44" t="s">
         <v>230</v>
       </c>
-      <c r="G44">
-        <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="H44">
-        <f>菜单标签数据!$E$29</f>
-      </c>
-      <c r="I44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="G44" t="str">
+        <f>菜单SAAS版!E16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H44" t="str">
+        <f>E17</f>
+        <v>iam_label-17</v>
+      </c>
+      <c r="I44" s="102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
       <c r="E45" t="s">
         <v>300</v>
       </c>
       <c r="F45" t="s">
         <v>230</v>
       </c>
-      <c r="G45">
-        <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H45">
-        <f>菜单标签数据!$E$8</f>
+      <c r="G45" t="str">
+        <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H45" t="str">
+        <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I45" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:9">
       <c r="E46" t="s">
         <v>300</v>
       </c>
       <c r="F46" t="s">
         <v>230</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H46">
-        <f>菜单标签数据!$E$27</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H46" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:9">
       <c r="E47" t="s">
         <v>300</v>
       </c>
       <c r="F47" t="s">
         <v>230</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H47">
-        <f>菜单标签数据!$E$28</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H47" t="str">
+        <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I47" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:9">
       <c r="E48" t="s">
         <v>300</v>
       </c>
       <c r="F48" t="s">
         <v>230</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H48">
-        <f>菜单标签数据!$E$29</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H48" t="str">
+        <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I48" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:9">
       <c r="E49" t="s">
         <v>300</v>
       </c>
       <c r="F49" t="s">
         <v>230</v>
       </c>
-      <c r="G49">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H49">
-        <f>菜单标签数据!$E$8</f>
+      <c r="G49" t="str">
+        <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H49" t="str">
+        <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I49" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
       <c r="E50" t="s">
         <v>300</v>
       </c>
       <c r="F50" t="s">
         <v>230</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="str">
         <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H50">
-        <f>菜单标签数据!$E$19</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H50" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I50" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
       <c r="E51" t="s">
         <v>300</v>
       </c>
       <c r="F51" t="s">
         <v>230</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="str">
         <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H51">
-        <f>菜单标签数据!$E$29</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H51" t="str">
+        <f>菜单标签数据!$E$19</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I51" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="5:9">
       <c r="E52" t="s">
         <v>300</v>
       </c>
       <c r="F52" t="s">
         <v>230</v>
       </c>
-      <c r="G52">
-        <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H52">
-        <f>菜单标签数据!$E$8</f>
+      <c r="G52" t="str">
+        <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H52" t="str">
+        <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I52" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
       <c r="E53" t="s">
         <v>300</v>
       </c>
       <c r="F53" t="s">
         <v>230</v>
       </c>
-      <c r="G53">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H53">
+      <c r="G53" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H53" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I53" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="5:9">
       <c r="E54" t="s">
         <v>300</v>
       </c>
       <c r="F54" t="s">
         <v>230</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H54">
-        <f>菜单标签数据!$E$19</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H54" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="5:9">
       <c r="E55" t="s">
         <v>300</v>
       </c>
       <c r="F55" t="s">
         <v>230</v>
       </c>
-      <c r="G55">
-        <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H55">
-        <f>菜单标签数据!$E$11</f>
+      <c r="G55" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H55" t="str">
+        <f>菜单标签数据!$E$19</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9">
       <c r="E56" t="s">
         <v>300</v>
       </c>
       <c r="F56" t="s">
         <v>230</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H56">
-        <f>菜单标签数据!$E$27</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H56" t="str">
+        <f>菜单标签数据!$E$11</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I56" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="5:9">
       <c r="E57" t="s">
         <v>300</v>
       </c>
       <c r="F57" t="s">
         <v>230</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H57">
-        <f>菜单标签数据!$E$28</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H57" t="str">
+        <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I57" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="5:9">
       <c r="E58" t="s">
         <v>300</v>
       </c>
       <c r="F58" t="s">
         <v>230</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H58">
-        <f>菜单标签数据!$E$29</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H58" t="str">
+        <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I58" t="s">
         <v>301</v>
       </c>
     </row>
+    <row r="59" spans="5:9">
+      <c r="E59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G59" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H59" t="str">
+        <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="A15:XFD15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:25">
+      <c r="A1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="1:25">
+      <c r="E4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -6979,10 +7196,10 @@
       <c r="C7" t="s">
         <v>303</v>
       </c>
-      <c r="D7" t="s" s="86">
+      <c r="D7" s="81" t="s">
         <v>304</v>
       </c>
-      <c r="E7" t="s" s="87">
+      <c r="E7" s="82" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -6991,7 +7208,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="88">
+      <c r="H7" s="83" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -7000,16 +7217,16 @@
       <c r="J7" t="s">
         <v>221</v>
       </c>
-      <c r="K7" t="s" s="89">
+      <c r="K7" s="84" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>306</v>
       </c>
-      <c r="M7" t="s" s="90">
+      <c r="M7" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="N7" t="s" s="91">
+      <c r="N7" s="86" t="s">
         <v>308</v>
       </c>
       <c r="O7" t="s">
@@ -7036,7 +7253,7 @@
       <c r="V7" t="s">
         <v>315</v>
       </c>
-      <c r="W7" t="s" s="92">
+      <c r="W7" s="87" t="s">
         <v>316</v>
       </c>
       <c r="X7" t="s">
@@ -7046,7 +7263,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>319</v>
       </c>
@@ -7105,7 +7322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>325</v>
       </c>
@@ -7164,7 +7381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>330</v>
       </c>
@@ -7186,8 +7403,9 @@
       <c r="L10" t="s">
         <v>80</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>79</v>
@@ -7226,7 +7444,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>337</v>
       </c>
@@ -7248,8 +7466,9 @@
       <c r="L11" t="s">
         <v>80</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
         <v>79</v>
@@ -7288,7 +7507,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>345</v>
       </c>
@@ -7310,8 +7529,9 @@
       <c r="L12" t="s">
         <v>80</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
         <v>79</v>
@@ -7350,7 +7570,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>352</v>
       </c>
@@ -7372,8 +7592,9 @@
       <c r="L13" t="s">
         <v>80</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
         <v>79</v>
@@ -7412,7 +7633,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>359</v>
       </c>
@@ -7434,8 +7655,9 @@
       <c r="L14" t="s">
         <v>80</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="str">
         <f>角色!$E$8</f>
+        <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
         <v>79</v>
@@ -7468,80 +7690,49 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
-      <c r="E15" t="s">
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
         <v>364</v>
       </c>
-      <c r="F15" t="s">
-        <v>360</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D16" s="88" t="s">
         <v>365</v>
       </c>
-      <c r="H15" t="s">
-        <v>361</v>
-      </c>
-      <c r="J15" t="s">
-        <v>324</v>
-      </c>
-      <c r="K15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" t="s">
-        <v>83</v>
-      </c>
-      <c r="T15" t="s">
-        <v>80</v>
-      </c>
-      <c r="U15" t="s">
-        <v>361</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="E16" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="90" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="G16" s="91" t="s">
         <v>367</v>
       </c>
-      <c r="D17" t="s" s="93">
+      <c r="H16" t="s">
         <v>368</v>
       </c>
-      <c r="E17" t="s" s="94">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s" s="95">
+      <c r="I16" t="s">
         <v>369</v>
       </c>
-      <c r="G17" t="s" s="96">
+      <c r="J16" s="92" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" t="s">
         <v>370</v>
+      </c>
+      <c r="F17" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G17" t="str">
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="H17" t="s">
         <v>371</v>
@@ -7549,329 +7740,336 @@
       <c r="I17" t="s">
         <v>372</v>
       </c>
-      <c r="J17" t="s" s="97">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="J17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
       <c r="E18" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>371</v>
+      </c>
+      <c r="I18" t="s">
+        <v>372</v>
+      </c>
+      <c r="J18" t="s">
         <v>373</v>
       </c>
-      <c r="F18">
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F19" t="str">
         <f>角色!$E$10</f>
-      </c>
-      <c r="G18">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G19" t="str">
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>371</v>
+      </c>
+      <c r="I19" t="s">
+        <v>372</v>
+      </c>
+      <c r="J19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" t="s">
+        <v>376</v>
+      </c>
+      <c r="F20" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G20" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>371</v>
+      </c>
+      <c r="I20" t="s">
+        <v>372</v>
+      </c>
+      <c r="J20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>371</v>
+      </c>
+      <c r="I21" t="s">
+        <v>372</v>
+      </c>
+      <c r="J21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>371</v>
+      </c>
+      <c r="I22" t="s">
+        <v>372</v>
+      </c>
+      <c r="J22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" t="s">
+        <v>379</v>
+      </c>
+      <c r="F23" t="str">
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>371</v>
+      </c>
+      <c r="I23" t="s">
+        <v>372</v>
+      </c>
+      <c r="J23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H18" t="s">
-        <v>374</v>
-      </c>
-      <c r="I18" t="s">
-        <v>375</v>
-      </c>
-      <c r="J18" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G19">
-        <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H19" t="s">
-        <v>374</v>
-      </c>
-      <c r="I19" t="s">
-        <v>375</v>
-      </c>
-      <c r="J19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>378</v>
-      </c>
-      <c r="F20">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G20">
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>371</v>
+      </c>
+      <c r="I24" t="s">
+        <v>372</v>
+      </c>
+      <c r="J24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="E25" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G25" t="str">
         <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H20" t="s">
-        <v>374</v>
-      </c>
-      <c r="I20" t="s">
-        <v>375</v>
-      </c>
-      <c r="J20" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>379</v>
-      </c>
-      <c r="F21">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G21">
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>371</v>
+      </c>
+      <c r="I25" t="s">
+        <v>372</v>
+      </c>
+      <c r="J25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10">
+      <c r="E26" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G26" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>371</v>
+      </c>
+      <c r="I26" t="s">
+        <v>372</v>
+      </c>
+      <c r="J26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G27" t="str">
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>371</v>
+      </c>
+      <c r="I27" t="s">
+        <v>372</v>
+      </c>
+      <c r="J27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10">
+      <c r="E28" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G28" t="str">
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>385</v>
+      </c>
+      <c r="I28" t="s">
+        <v>372</v>
+      </c>
+      <c r="J28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10">
+      <c r="E29" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="H21" t="s">
-        <v>374</v>
-      </c>
-      <c r="I21" t="s">
-        <v>375</v>
-      </c>
-      <c r="J21" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>380</v>
-      </c>
-      <c r="F22">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G22">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H22" t="s">
-        <v>374</v>
-      </c>
-      <c r="I22" t="s">
-        <v>375</v>
-      </c>
-      <c r="J22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F23">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G23">
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I29" t="s">
+        <v>372</v>
+      </c>
+      <c r="J29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G30" t="str">
         <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I23" t="s">
-        <v>375</v>
-      </c>
-      <c r="J23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>382</v>
-      </c>
-      <c r="F24">
-        <f>角色!$E$11</f>
-      </c>
-      <c r="G24">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H24" t="s">
-        <v>374</v>
-      </c>
-      <c r="I24" t="s">
-        <v>375</v>
-      </c>
-      <c r="J24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>383</v>
-      </c>
-      <c r="F25">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G25">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H25" t="s">
-        <v>374</v>
-      </c>
-      <c r="I25" t="s">
-        <v>375</v>
-      </c>
-      <c r="J25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>384</v>
-      </c>
-      <c r="F26">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G26">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H26" t="s">
-        <v>374</v>
-      </c>
-      <c r="I26" t="s">
-        <v>375</v>
-      </c>
-      <c r="J26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>385</v>
-      </c>
-      <c r="F27">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G27">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H27" t="s">
-        <v>374</v>
-      </c>
-      <c r="I27" t="s">
-        <v>375</v>
-      </c>
-      <c r="J27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G28">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H28" t="s">
-        <v>374</v>
-      </c>
-      <c r="I28" t="s">
-        <v>375</v>
-      </c>
-      <c r="J28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>387</v>
-      </c>
-      <c r="F29">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G29">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H29" t="s">
-        <v>388</v>
-      </c>
-      <c r="I29" t="s">
-        <v>375</v>
-      </c>
-      <c r="J29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>389</v>
-      </c>
-      <c r="F30">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G30">
-        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I30" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J30" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>390</v>
-      </c>
-      <c r="F31">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G31">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H31" t="s">
-        <v>374</v>
-      </c>
-      <c r="I31" t="s">
-        <v>375</v>
-      </c>
-      <c r="J31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:15">
+      <c r="A1" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="63">
+      <c r="D1" s="58" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="64">
+    <row r="4" spans="1:15">
+      <c r="E4" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="65">
+      <c r="F4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="66">
+      <c r="G4" s="61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7881,16 +8079,16 @@
       <c r="C7" t="s">
         <v>216</v>
       </c>
-      <c r="D7" t="s" s="98">
+      <c r="D7" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="E7" t="s" s="99">
+      <c r="E7" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="100">
+      <c r="F7" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="G7" t="s" s="101">
+      <c r="G7" s="96" t="s">
         <v>219</v>
       </c>
       <c r="H7" t="s">
@@ -7918,15 +8116,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H8" t="s">
         <v>83</v>
@@ -7935,10 +8133,10 @@
         <v>231</v>
       </c>
       <c r="J8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -7950,15 +8148,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H9" t="s">
         <v>83</v>
@@ -7967,7 +8165,7 @@
         <v>238</v>
       </c>
       <c r="J9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -7979,15 +8177,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>236</v>
       </c>
       <c r="F10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H10" t="s">
         <v>83</v>
@@ -7996,10 +8194,10 @@
         <v>231</v>
       </c>
       <c r="J10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -8011,15 +8209,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
@@ -8028,10 +8226,10 @@
         <v>231</v>
       </c>
       <c r="J11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -8043,15 +8241,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H12" t="s">
         <v>83</v>
@@ -8060,10 +8258,10 @@
         <v>231</v>
       </c>
       <c r="J12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -8075,15 +8273,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H13" t="s">
         <v>83</v>
@@ -8092,10 +8290,10 @@
         <v>231</v>
       </c>
       <c r="J13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -8107,15 +8305,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H14" t="s">
         <v>83</v>
@@ -8124,7 +8322,7 @@
         <v>231</v>
       </c>
       <c r="J14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K14" t="s">
         <v>351</v>
@@ -8139,15 +8337,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
@@ -8156,10 +8354,10 @@
         <v>231</v>
       </c>
       <c r="J15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -8171,15 +8369,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H16" t="s">
         <v>83</v>
@@ -8188,10 +8386,10 @@
         <v>231</v>
       </c>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K16" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -8203,15 +8401,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
         <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H17" t="s">
         <v>83</v>
@@ -8220,10 +8418,10 @@
         <v>231</v>
       </c>
       <c r="J17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K17" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -8235,15 +8433,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
         <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
@@ -8252,10 +8450,10 @@
         <v>231</v>
       </c>
       <c r="J18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -8267,15 +8465,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
         <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H19" t="s">
         <v>83</v>
@@ -8284,10 +8482,10 @@
         <v>231</v>
       </c>
       <c r="J19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -8300,6 +8498,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,45 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam-hand\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\hrds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1F4EE-EFA1-4944-AF35-AD73243D1355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
-    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
-    <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
-    <sheet name="角色" sheetId="5" r:id="rId5"/>
-    <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
+    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
+    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
+    <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
+    <sheet name="角色" r:id="rId8" sheetId="5"/>
+    <sheet name="角色标签数据" r:id="rId9" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="423">
   <si>
     <r>
       <rPr>
@@ -2008,7 +1999,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-18</t>
+    <t>2020-06-19</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2092,9 +2083,6 @@
     <t>基础</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
@@ -2278,234 +2266,249 @@
     <t>iam_menu_permission-8</t>
   </si>
   <si>
+    <t>hrds-code-repo.member-audit-log-org.detailLatest</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.org.listProjectsByUserId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-audit-record-org.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-org.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-operation-log-org.pageByOptionsMemberLog</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.project.listDeveloperProjectMembers</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-15</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.detectApplicantType</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.pageByOptionsSelf</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.export</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-repository-proj.listByActive</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
     <t>hrds-code-repo.member-audit-log.detailLatest</t>
   </si>
   <si>
-    <t>iam_menu_permission-9</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.project.listDeveloperProjectMembers</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-10</t>
+    <t>iam_menu_permission-21</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-branch.createProtectedBranch</t>
   </si>
   <si>
-    <t>iam_menu_permission-11</t>
+    <t>iam_menu_permission-23</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-branch.getBranches</t>
   </si>
   <si>
-    <t>iam_menu_permission-12</t>
+    <t>iam_menu_permission-24</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-branch.getProtectedBranches</t>
   </si>
   <si>
-    <t>iam_menu_permission-13</t>
+    <t>iam_menu_permission-25</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-branch.removeProtectedBranch</t>
   </si>
   <si>
-    <t>iam_menu_permission-14</t>
+    <t>iam_menu_permission-26</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-branch.updateProtectedBranch</t>
   </si>
   <si>
-    <t>iam_menu_permission-15</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.create</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-16</t>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member-applicant-proj.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-17</t>
+    <t>iam_menu_permission-30</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member-applicant-proj.passAndHandleMember</t>
   </si>
   <si>
-    <t>iam_menu_permission-18</t>
+    <t>iam_menu_permission-31</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member-applicant-proj.refuse</t>
   </si>
   <si>
-    <t>iam_menu_permission-19</t>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-audit-record-proj.auditFix</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-33</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member-audit-record-proj.pageByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-20</t>
+    <t>iam_menu_permission-34</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member-audit-record-proj.sync</t>
   </si>
   <si>
-    <t>iam_menu_permission-21</t>
+    <t>iam_menu_permission-35</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member-proj.batchAddMembers</t>
   </si>
   <si>
-    <t>iam_menu_permission-22</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-proj.export</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-23</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-24</t>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-38</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member-proj.pageSecurityAudit</t>
   </si>
   <si>
-    <t>iam_menu_permission-25</t>
+    <t>iam_menu_permission-39</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member.removeMember</t>
   </si>
   <si>
-    <t>iam_menu_permission-26</t>
+    <t>iam_menu_permission-40</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member.syncMember</t>
   </si>
   <si>
-    <t>iam_menu_permission-27</t>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.syncMembersFromGitlab</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-member.updateMember</t>
   </si>
   <si>
-    <t>iam_menu_permission-28</t>
+    <t>iam_menu_permission-43</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-operation-log-proj.pageByOptionsMemberLog</t>
   </si>
   <si>
-    <t>iam_menu_permission-29</t>
+    <t>iam_menu_permission-44</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-project.pageMemberPermissions</t>
   </si>
   <si>
-    <t>iam_menu_permission-30</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-repository-proj.listByActive</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-31</t>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-repository-proj.pageOverviewByOptions</t>
   </si>
   <si>
-    <t>iam_menu_permission-32</t>
+    <t>iam_menu_permission-47</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-tag.createProtectedTag</t>
   </si>
   <si>
-    <t>iam_menu_permission-33</t>
+    <t>iam_menu_permission-48</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-tag.deleteProtectedTag</t>
   </si>
   <si>
-    <t>iam_menu_permission-34</t>
+    <t>iam_menu_permission-49</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-tag.getProtectedTags</t>
   </si>
   <si>
-    <t>iam_menu_permission-35</t>
+    <t>iam_menu_permission-50</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-tag.getTags</t>
   </si>
   <si>
-    <t>iam_menu_permission-36</t>
+    <t>iam_menu_permission-51</t>
   </si>
   <si>
     <t>hrds-code-repo.rdm-tag.updateProtectedTag</t>
   </si>
   <si>
-    <t>iam_menu_permission-37</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-38</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-39</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.detectApplicantType</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-40</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-applicant-proj.pageByOptionsSelf</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-41</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-42</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-43</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-44</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.member-audit-log-org.detailLatest</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-45</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.org.listProjectsByUserId</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-46</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-audit-record-org.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-47</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-org.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-48</t>
-  </si>
-  <si>
-    <t>hrds-code-repo.rdm-operation-log-org.pageByOptionsMemberLog</t>
-  </si>
-  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2968,18 +2971,21 @@
     <t>h_inherit_flag</t>
   </si>
   <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
     <t>iam_role_permission-18</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
     <t>iam_role_permission-19</t>
   </si>
   <si>
@@ -3019,9 +3025,6 @@
     <t>iam_role_permission-30</t>
   </si>
   <si>
-    <t>iam_role_permission-31</t>
-  </si>
-  <si>
     <t>TENANT_MGR</t>
   </si>
   <si>
@@ -3113,16 +3116,13 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="88">
     <font>
       <sz val="12"/>
@@ -3242,424 +3242,354 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3800,7 +3730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3852,76 +3782,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3937,11 +3797,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -4032,7 +3961,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4281,36 +4210,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4319,21 +4248,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="99" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4444,11 +4373,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -4486,19 +4415,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="97"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="97"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -4522,46 +4451,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="8" width="22.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4571,13 +4493,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" t="s" s="67">
         <v>53</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" t="s" s="68">
         <v>54</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" t="s" s="69">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4589,10 +4511,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" t="s" s="70">
         <v>59</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" t="s" s="71">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4613,7 +4535,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" t="s" s="72">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4638,7 +4560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4651,372 +4573,346 @@
       <c r="H8" t="s">
         <v>77</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>78</v>
       </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
       <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
         <v>80</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>81</v>
       </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s">
         <v>76</v>
       </c>
       <c r="T8" t="s">
+        <v>79</v>
+      </c>
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="L11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
         <v>80</v>
       </c>
-      <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="L13" t="s">
         <v>87</v>
       </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
         <v>78</v>
       </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K14">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
         <v>88</v>
       </c>
-      <c r="M9" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" t="s">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s">
+        <v>97</v>
+      </c>
+      <c r="V14" t="s">
         <v>83</v>
       </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="L10" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" t="s">
-        <v>98</v>
-      </c>
-      <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" t="s">
-        <v>83</v>
-      </c>
-      <c r="O11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="V11" t="s">
-        <v>84</v>
-      </c>
-      <c r="X11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>105</v>
-      </c>
-      <c r="T12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s">
-        <v>84</v>
-      </c>
-      <c r="X12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="str">
-        <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="L13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>111</v>
-      </c>
-      <c r="P13" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s">
-        <v>113</v>
-      </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V13" t="s">
-        <v>84</v>
-      </c>
-      <c r="X13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="X14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="T14" t="s">
-        <v>80</v>
-      </c>
-      <c r="U14" t="s">
-        <v>98</v>
-      </c>
-      <c r="V14" t="s">
-        <v>84</v>
-      </c>
-      <c r="X14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>117</v>
-      </c>
-      <c r="F15" t="s">
-        <v>118</v>
       </c>
       <c r="G15" t="s">
         <v>77</v>
@@ -5024,296 +4920,276 @@
       <c r="H15" t="s">
         <v>77</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>78</v>
       </c>
-      <c r="J15" t="s">
-        <v>79</v>
-      </c>
       <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
         <v>80</v>
       </c>
-      <c r="L15" t="s">
-        <v>81</v>
-      </c>
       <c r="M15" t="s">
+        <v>118</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" t="s">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
         <v>119</v>
       </c>
-      <c r="N15" t="s">
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" t="s">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s">
         <v>83</v>
       </c>
-      <c r="Q15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>118</v>
-      </c>
-      <c r="T15" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" t="s">
-        <v>84</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="X16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s">
+        <v>97</v>
+      </c>
+      <c r="V17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="X17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" t="s">
         <v>78</v>
       </c>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="str">
-        <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="L16" t="s">
-        <v>88</v>
-      </c>
-      <c r="M16" t="s">
-        <v>89</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="K18">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s">
+        <v>129</v>
+      </c>
+      <c r="T18" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s">
         <v>83</v>
       </c>
-      <c r="O16" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>80</v>
-      </c>
-      <c r="R16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>123</v>
-      </c>
-      <c r="T16" t="s">
-        <v>80</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="X18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="L19" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" t="s">
+        <v>133</v>
+      </c>
+      <c r="T19" t="s">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="5:24">
-      <c r="E17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>96</v>
-      </c>
-      <c r="M17" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>80</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>126</v>
-      </c>
-      <c r="T17" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" t="s">
-        <v>98</v>
-      </c>
-      <c r="V17" t="s">
-        <v>84</v>
-      </c>
-      <c r="X17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="5:24">
-      <c r="E18" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="L18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" t="s">
-        <v>130</v>
-      </c>
-      <c r="T18" t="s">
-        <v>80</v>
-      </c>
-      <c r="V18" t="s">
-        <v>84</v>
-      </c>
-      <c r="X18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="5:24">
-      <c r="E19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" t="str">
-        <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="L19" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" t="s">
-        <v>83</v>
-      </c>
-      <c r="O19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
-        <v>134</v>
-      </c>
-      <c r="T19" t="s">
-        <v>80</v>
-      </c>
-      <c r="V19" t="s">
-        <v>84</v>
-      </c>
       <c r="X19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5321,561 +5197,544 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s" s="73">
         <v>135</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="E7" t="s" s="74">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="75">
         <v>136</v>
       </c>
-      <c r="E7" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="70" t="s">
+      <c r="G7" t="s" s="76">
         <v>137</v>
       </c>
-      <c r="G7" s="71" t="s">
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" t="s">
+      <c r="F8">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G8" t="s">
         <v>139</v>
       </c>
-      <c r="F8" t="str">
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="G19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" t="str">
+      </c>
+      <c r="G20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" t="str">
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" t="str">
+      </c>
+      <c r="G22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" t="str">
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" t="str">
+      </c>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" t="s">
+      </c>
+      <c r="G25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G27" t="s">
         <v>151</v>
       </c>
-      <c r="F14" t="str">
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" t="s">
+      </c>
+      <c r="G28" t="s">
         <v>153</v>
       </c>
-      <c r="F15" t="str">
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" t="str">
+      </c>
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
+      </c>
+      <c r="G30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G36" t="s">
         <v>157</v>
       </c>
-      <c r="F17" t="str">
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" t="s">
+      </c>
+      <c r="G37" t="s">
         <v>159</v>
       </c>
-      <c r="F18" t="str">
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" t="s">
+      </c>
+      <c r="G38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="G45" t="s">
         <v>161</v>
       </c>
-      <c r="F19" t="str">
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" t="str">
+      </c>
+      <c r="G46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" t="str">
+      </c>
+      <c r="G47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" t="str">
+      </c>
+      <c r="G48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" t="str">
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" t="str">
+      </c>
+      <c r="G50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="E30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" t="s">
-        <v>201</v>
-      </c>
-      <c r="F40" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" t="s">
-        <v>205</v>
-      </c>
-      <c r="F43" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" t="s">
-        <v>206</v>
-      </c>
-      <c r="F44" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="E48" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>215</v>
+      </c>
+      <c r="G51" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="41" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="46">
         <v>44</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" t="s" s="47">
         <v>45</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" t="s" s="48">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" t="s" s="49">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="45" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="50">
         <v>47</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" t="s" s="51">
         <v>48</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" t="s" s="52">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5883,708 +5742,708 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s" s="77">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>219</v>
+      <c r="F7" t="s" s="79">
+        <v>222</v>
+      </c>
+      <c r="G7" t="s" s="80">
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
         <v>234</v>
       </c>
-      <c r="G9" t="s">
-        <v>230</v>
-      </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K9" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>242</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
         <v>235</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" t="s">
         <v>234</v>
       </c>
-      <c r="M9" t="s">
-        <v>83</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>238</v>
-      </c>
-      <c r="M10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="E11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>231</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
         <v>242</v>
       </c>
-      <c r="G12" t="s">
-        <v>230</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" t="s">
-        <v>238</v>
-      </c>
       <c r="J12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F15" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J16" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K17" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K18" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G19" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J19" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K22" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="E23" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F23" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G23" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K23" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="E24" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G24" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="E25" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F25" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G25" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="E26" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="E27" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G27" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="E28" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F28" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="E29" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K29" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -6592,601 +6451,576 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
-      </c>
-      <c r="D31" s="76" t="s">
-        <v>294</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="F31" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="G31" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="D31" t="s" s="81">
         <v>298</v>
       </c>
+      <c r="E31" t="s" s="82">
+        <v>299</v>
+      </c>
+      <c r="F31" t="s" s="83">
+        <v>300</v>
+      </c>
+      <c r="G31" t="s" s="84">
+        <v>301</v>
+      </c>
+      <c r="H31" t="s" s="85">
+        <v>302</v>
+      </c>
       <c r="I31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="E32" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G32" t="str">
+        <v>234</v>
+      </c>
+      <c r="G32">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H32" t="str">
+      </c>
+      <c r="H32">
         <f>菜单标签数据!$E$11</f>
-        <v>iam_label-11</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="E33" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" t="str">
+        <v>234</v>
+      </c>
+      <c r="G33">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H33" t="str">
+      </c>
+      <c r="H33">
         <f>菜单标签数据!$E$24</f>
-        <v>iam_label-24</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="E34" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
-      </c>
-      <c r="G34" t="str">
+        <v>234</v>
+      </c>
+      <c r="G34">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H34" t="str">
+      </c>
+      <c r="H34">
         <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="E35" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F35" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" t="str">
+        <v>234</v>
+      </c>
+      <c r="G35">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H35" t="str">
+      </c>
+      <c r="H35">
         <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="E36" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" t="str">
+        <v>234</v>
+      </c>
+      <c r="G36">
         <f>菜单SAAS版!$E$12</f>
-        <v>iam_menu-12</v>
-      </c>
-      <c r="H36" t="str">
+      </c>
+      <c r="H36">
         <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="E37" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
-      </c>
-      <c r="G37" t="str">
+        <v>234</v>
+      </c>
+      <c r="G37">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H37">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H38">
+        <f>菜单标签数据!$E$27</f>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H39">
+        <f>菜单标签数据!$E$28</f>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>304</v>
+      </c>
+      <c r="F40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H40">
+        <f>菜单标签数据!$E$29</f>
+      </c>
+      <c r="I40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H41">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H42">
+        <f>菜单标签数据!$E$19</f>
+      </c>
+      <c r="I42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H43">
+        <f>菜单标签数据!$E$29</f>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F44" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H44">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F45" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H45">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" t="s">
+        <v>234</v>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H46">
+        <f>菜单标签数据!$E$19</f>
+      </c>
+      <c r="I46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H47">
+        <f>菜单标签数据!$E$11</f>
+      </c>
+      <c r="I47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H48">
+        <f>菜单标签数据!$E$27</f>
+      </c>
+      <c r="I48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>304</v>
+      </c>
+      <c r="F49" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H49">
+        <f>菜单标签数据!$E$28</f>
+      </c>
+      <c r="I49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>304</v>
+      </c>
+      <c r="F50" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H50">
+        <f>菜单标签数据!$E$29</f>
+      </c>
+      <c r="I50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>304</v>
+      </c>
+      <c r="F51" t="s">
+        <v>234</v>
+      </c>
+      <c r="G51">
         <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H37" t="str">
+      </c>
+      <c r="H51">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>304</v>
+      </c>
+      <c r="F52" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H52">
         <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9">
-      <c r="E38" t="s">
-        <v>300</v>
-      </c>
-      <c r="F38" t="s">
-        <v>230</v>
-      </c>
-      <c r="G38" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H38" t="str">
-        <f>E17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9">
-      <c r="E39" t="s">
-        <v>300</v>
-      </c>
-      <c r="F39" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" t="str">
-        <f>菜单SAAS版!E15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H39" t="str">
-        <f>E13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I39" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9">
-      <c r="E40" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" t="s">
-        <v>230</v>
-      </c>
-      <c r="G40" t="str">
+      </c>
+      <c r="I52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>304</v>
+      </c>
+      <c r="F53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53">
         <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H40" t="str">
+      </c>
+      <c r="H53">
+        <f>菜单标签数据!$E$15</f>
+      </c>
+      <c r="I53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H54">
+        <f>菜单标签数据!$E$16</f>
+      </c>
+      <c r="I54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H55">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H56">
         <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
-      </c>
-      <c r="I40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9">
-      <c r="E41" t="s">
-        <v>300</v>
-      </c>
-      <c r="F41" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" t="str">
+      </c>
+      <c r="I56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57">
         <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H41" t="str">
+      </c>
+      <c r="H57">
         <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
-      </c>
-      <c r="I41" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9">
-      <c r="E42" t="s">
-        <v>300</v>
-      </c>
-      <c r="F42" t="s">
-        <v>230</v>
-      </c>
-      <c r="G42" t="str">
+      </c>
+      <c r="I57" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58">
         <f>菜单SAAS版!$E$15</f>
-        <v>iam_menu-15</v>
-      </c>
-      <c r="H42" t="str">
+      </c>
+      <c r="H58">
         <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I42" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9">
-      <c r="E43" t="s">
-        <v>300</v>
-      </c>
-      <c r="F43" t="s">
-        <v>230</v>
-      </c>
-      <c r="G43" t="str">
+      </c>
+      <c r="I58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>304</v>
+      </c>
+      <c r="F59" t="s">
+        <v>234</v>
+      </c>
+      <c r="G59">
         <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H43" t="str">
+      </c>
+      <c r="H59">
         <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
-      </c>
-      <c r="I43" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9">
-      <c r="E44" t="s">
-        <v>300</v>
-      </c>
-      <c r="F44" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" t="str">
-        <f>菜单SAAS版!E16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H44" t="str">
-        <f>E17</f>
-        <v>iam_label-17</v>
-      </c>
-      <c r="I44" s="102" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9">
-      <c r="E45" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" t="s">
-        <v>230</v>
-      </c>
-      <c r="G45" t="str">
+      </c>
+      <c r="I59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>304</v>
+      </c>
+      <c r="F60" t="s">
+        <v>234</v>
+      </c>
+      <c r="G60">
         <f>菜单SAAS版!$E$16</f>
-        <v>iam_menu-16</v>
-      </c>
-      <c r="H45" t="str">
+      </c>
+      <c r="H60">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" t="s">
+        <v>234</v>
+      </c>
+      <c r="G61">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H61">
         <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9">
-      <c r="E46" t="s">
-        <v>300</v>
-      </c>
-      <c r="F46" t="s">
-        <v>230</v>
-      </c>
-      <c r="G46" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H46" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I46" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9">
-      <c r="E47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" t="s">
-        <v>230</v>
-      </c>
-      <c r="G47" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H47" t="str">
-        <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
-      </c>
-      <c r="I47" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9">
-      <c r="E48" t="s">
-        <v>300</v>
-      </c>
-      <c r="F48" t="s">
-        <v>230</v>
-      </c>
-      <c r="G48" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H48" t="str">
-        <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
-      </c>
-      <c r="I48" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9">
-      <c r="E49" t="s">
-        <v>300</v>
-      </c>
-      <c r="F49" t="s">
-        <v>230</v>
-      </c>
-      <c r="G49" t="str">
-        <f>菜单SAAS版!$E$8</f>
-        <v>iam_menu-8</v>
-      </c>
-      <c r="H49" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9">
-      <c r="E50" t="s">
-        <v>300</v>
-      </c>
-      <c r="F50" t="s">
-        <v>230</v>
-      </c>
-      <c r="G50" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H50" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I50" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9">
-      <c r="E51" t="s">
-        <v>300</v>
-      </c>
-      <c r="F51" t="s">
-        <v>230</v>
-      </c>
-      <c r="G51" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H51" t="str">
-        <f>菜单标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9">
-      <c r="E52" t="s">
-        <v>300</v>
-      </c>
-      <c r="F52" t="s">
-        <v>230</v>
-      </c>
-      <c r="G52" t="str">
-        <f>菜单SAAS版!$E$9</f>
-        <v>iam_menu-9</v>
-      </c>
-      <c r="H52" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I52" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9">
-      <c r="E53" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" t="s">
-        <v>230</v>
-      </c>
-      <c r="G53" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H53" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9">
-      <c r="E54" t="s">
-        <v>300</v>
-      </c>
-      <c r="F54" t="s">
-        <v>230</v>
-      </c>
-      <c r="G54" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H54" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
-      </c>
-      <c r="I54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9">
-      <c r="E55" t="s">
-        <v>300</v>
-      </c>
-      <c r="F55" t="s">
-        <v>230</v>
-      </c>
-      <c r="G55" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H55" t="str">
-        <f>菜单标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9">
-      <c r="E56" t="s">
-        <v>300</v>
-      </c>
-      <c r="F56" t="s">
-        <v>230</v>
-      </c>
-      <c r="G56" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H56" t="str">
-        <f>菜单标签数据!$E$11</f>
-        <v>iam_label-11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9">
-      <c r="E57" t="s">
-        <v>300</v>
-      </c>
-      <c r="F57" t="s">
-        <v>230</v>
-      </c>
-      <c r="G57" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H57" t="str">
-        <f>菜单标签数据!$E$27</f>
-        <v>iam_label-27</v>
-      </c>
-      <c r="I57" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9">
-      <c r="E58" t="s">
-        <v>300</v>
-      </c>
-      <c r="F58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G58" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H58" t="str">
-        <f>菜单标签数据!$E$28</f>
-        <v>iam_label-28</v>
-      </c>
-      <c r="I58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="5:9">
-      <c r="E59" t="s">
-        <v>300</v>
-      </c>
-      <c r="F59" t="s">
-        <v>230</v>
-      </c>
-      <c r="G59" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
-      </c>
-      <c r="H59" t="str">
-        <f>菜单标签数据!$E$29</f>
-        <v>iam_label-29</v>
-      </c>
-      <c r="I59" t="s">
-        <v>301</v>
+      </c>
+      <c r="I61" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="A15:XFD15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="48" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="E4" s="52" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7194,12 +7028,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s" s="86">
+        <v>308</v>
+      </c>
+      <c r="E7" t="s" s="87">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -7208,489 +7042,484 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" t="s" s="88">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K7" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" t="s" s="89">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M7" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="N7" s="86" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="M7" t="s" s="90">
+        <v>311</v>
+      </c>
+      <c r="N7" t="s" s="91">
+        <v>312</v>
       </c>
       <c r="O7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="R7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="S7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="T7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>315</v>
-      </c>
-      <c r="W7" s="87" t="s">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="W7" t="s" s="92">
+        <v>320</v>
       </c>
       <c r="X7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Y7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="V8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="W8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H9" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" t="s">
+        <v>332</v>
+      </c>
+      <c r="V9" t="s">
+        <v>332</v>
+      </c>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H10" t="s">
+        <v>337</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" t="s">
+        <v>338</v>
+      </c>
+      <c r="V10" t="s">
+        <v>339</v>
+      </c>
+      <c r="W10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" t="s">
+        <v>344</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+      <c r="R11" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" t="s">
+        <v>79</v>
+      </c>
+      <c r="U11" t="s">
+        <v>345</v>
+      </c>
+      <c r="V11" t="s">
+        <v>346</v>
+      </c>
+      <c r="W11" t="s">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" t="s">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s">
+        <v>353</v>
+      </c>
+      <c r="V12" t="s">
+        <v>354</v>
+      </c>
+      <c r="W12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" t="s">
+        <v>359</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R13" t="s">
+        <v>82</v>
+      </c>
+      <c r="S13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s">
+        <v>360</v>
+      </c>
+      <c r="V13" t="s">
+        <v>361</v>
+      </c>
+      <c r="W13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J14" t="s">
         <v>328</v>
       </c>
-      <c r="I9" t="s">
-        <v>329</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" t="s">
-        <v>83</v>
-      </c>
-      <c r="S9" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" t="s">
-        <v>80</v>
-      </c>
-      <c r="U9" t="s">
-        <v>328</v>
-      </c>
-      <c r="V9" t="s">
-        <v>328</v>
-      </c>
-      <c r="W9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="E10" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" t="s">
-        <v>333</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="str">
-        <f>角色!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" t="s">
-        <v>83</v>
-      </c>
-      <c r="T10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" t="s">
-        <v>334</v>
-      </c>
-      <c r="V10" t="s">
-        <v>335</v>
-      </c>
-      <c r="W10" t="s">
-        <v>80</v>
-      </c>
-      <c r="X10" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H11" t="s">
-        <v>340</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" t="str">
-        <f>角色!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" t="s">
-        <v>341</v>
-      </c>
-      <c r="V11" t="s">
-        <v>342</v>
-      </c>
-      <c r="W11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X11" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="E12" t="s">
-        <v>345</v>
-      </c>
-      <c r="F12" t="s">
-        <v>346</v>
-      </c>
-      <c r="G12" t="s">
-        <v>347</v>
-      </c>
-      <c r="H12" t="s">
-        <v>348</v>
-      </c>
-      <c r="J12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" t="str">
-        <f>角色!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" t="s">
-        <v>83</v>
-      </c>
-      <c r="S12" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" t="s">
-        <v>80</v>
-      </c>
-      <c r="U12" t="s">
-        <v>349</v>
-      </c>
-      <c r="V12" t="s">
-        <v>350</v>
-      </c>
-      <c r="W12" t="s">
-        <v>80</v>
-      </c>
-      <c r="X12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="E13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" t="s">
-        <v>353</v>
-      </c>
-      <c r="G13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H13" t="s">
-        <v>355</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" t="str">
-        <f>角色!$E$9</f>
-        <v>iam_role-9</v>
-      </c>
-      <c r="N13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R13" t="s">
-        <v>83</v>
-      </c>
-      <c r="S13" t="s">
-        <v>83</v>
-      </c>
-      <c r="T13" t="s">
-        <v>80</v>
-      </c>
-      <c r="U13" t="s">
-        <v>356</v>
-      </c>
-      <c r="V13" t="s">
-        <v>357</v>
-      </c>
-      <c r="W13" t="s">
-        <v>80</v>
-      </c>
-      <c r="X13" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="E14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F14" t="s">
-        <v>360</v>
-      </c>
-      <c r="G14" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J14" t="s">
-        <v>324</v>
-      </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" t="str">
+        <v>79</v>
+      </c>
+      <c r="M14">
         <f>角色!$E$8</f>
-        <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="V14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7698,378 +7527,349 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>364</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>365</v>
-      </c>
-      <c r="E16" s="89" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16" t="s" s="93">
+        <v>369</v>
+      </c>
+      <c r="E16" t="s" s="94">
         <v>54</v>
       </c>
-      <c r="F16" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>367</v>
+      <c r="F16" t="s" s="95">
+        <v>370</v>
+      </c>
+      <c r="G16" t="s" s="96">
+        <v>371</v>
       </c>
       <c r="H16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I16" t="s">
-        <v>369</v>
-      </c>
-      <c r="J16" s="92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
+        <v>373</v>
+      </c>
+      <c r="J16" t="s" s="97">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F17" t="str">
+        <v>374</v>
+      </c>
+      <c r="F17">
         <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G17" t="str">
+      </c>
+      <c r="G17">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H17" t="s">
+        <v>375</v>
+      </c>
+      <c r="I17" t="s">
+        <v>376</v>
+      </c>
+      <c r="J17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F18">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G18">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H18" t="s">
+        <v>375</v>
+      </c>
+      <c r="I18" t="s">
+        <v>376</v>
+      </c>
+      <c r="J18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F19">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G19">
         <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>371</v>
-      </c>
-      <c r="I17" t="s">
-        <v>372</v>
-      </c>
-      <c r="J17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="E18" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" t="str">
+      </c>
+      <c r="H19" t="s">
+        <v>375</v>
+      </c>
+      <c r="I19" t="s">
+        <v>376</v>
+      </c>
+      <c r="J19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>380</v>
+      </c>
+      <c r="F20">
         <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G18" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>371</v>
-      </c>
-      <c r="I18" t="s">
-        <v>372</v>
-      </c>
-      <c r="J18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="E19" t="s">
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H20" t="s">
         <v>375</v>
       </c>
-      <c r="F19" t="str">
+      <c r="I20" t="s">
+        <v>376</v>
+      </c>
+      <c r="J20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21">
         <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G19" t="str">
+      </c>
+      <c r="G21">
         <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>371</v>
-      </c>
-      <c r="I19" t="s">
-        <v>372</v>
-      </c>
-      <c r="J19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="E20" t="s">
+      </c>
+      <c r="H21" t="s">
+        <v>375</v>
+      </c>
+      <c r="I21" t="s">
         <v>376</v>
       </c>
-      <c r="F20" t="str">
+      <c r="J21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F22">
         <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G20" t="str">
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H22" t="s">
+        <v>375</v>
+      </c>
+      <c r="I22" t="s">
+        <v>376</v>
+      </c>
+      <c r="J22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>383</v>
+      </c>
+      <c r="F23">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H23" t="s">
+        <v>375</v>
+      </c>
+      <c r="I23" t="s">
+        <v>376</v>
+      </c>
+      <c r="J23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I24" t="s">
+        <v>376</v>
+      </c>
+      <c r="J24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H25" t="s">
+        <v>375</v>
+      </c>
+      <c r="I25" t="s">
+        <v>376</v>
+      </c>
+      <c r="J25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>386</v>
+      </c>
+      <c r="F26">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H26" t="s">
+        <v>375</v>
+      </c>
+      <c r="I26" t="s">
+        <v>376</v>
+      </c>
+      <c r="J26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G27">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H27" t="s">
+        <v>375</v>
+      </c>
+      <c r="I27" t="s">
+        <v>376</v>
+      </c>
+      <c r="J27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>388</v>
+      </c>
+      <c r="F28">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G28">
         <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>371</v>
-      </c>
-      <c r="I20" t="s">
-        <v>372</v>
-      </c>
-      <c r="J20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" t="s">
+      </c>
+      <c r="H28" t="s">
+        <v>375</v>
+      </c>
+      <c r="I28" t="s">
+        <v>376</v>
+      </c>
+      <c r="J28" t="s">
         <v>377</v>
       </c>
-      <c r="F21" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G21" t="str">
-        <f>菜单SAAS版!$E$11</f>
-        <v>iam_menu-11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>371</v>
-      </c>
-      <c r="I21" t="s">
-        <v>372</v>
-      </c>
-      <c r="J21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
-      <c r="E22" t="s">
-        <v>378</v>
-      </c>
-      <c r="F22" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
-      </c>
-      <c r="G22" t="str">
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G29">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H29" t="s">
+        <v>390</v>
+      </c>
+      <c r="I29" t="s">
+        <v>376</v>
+      </c>
+      <c r="J29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>391</v>
+      </c>
+      <c r="F30">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G30">
         <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>371</v>
-      </c>
-      <c r="I22" t="s">
-        <v>372</v>
-      </c>
-      <c r="J22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="E23" t="s">
-        <v>379</v>
-      </c>
-      <c r="F23" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
-      </c>
-      <c r="G23" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>371</v>
-      </c>
-      <c r="I23" t="s">
-        <v>372</v>
-      </c>
-      <c r="J23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" t="s">
-        <v>380</v>
-      </c>
-      <c r="F24" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G24" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>371</v>
-      </c>
-      <c r="I24" t="s">
-        <v>372</v>
-      </c>
-      <c r="J24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="E25" t="s">
-        <v>381</v>
-      </c>
-      <c r="F25" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G25" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>371</v>
-      </c>
-      <c r="I25" t="s">
-        <v>372</v>
-      </c>
-      <c r="J25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="E26" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
-      </c>
-      <c r="G26" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>371</v>
-      </c>
-      <c r="I26" t="s">
-        <v>372</v>
-      </c>
-      <c r="J26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10">
-      <c r="E27" t="s">
-        <v>383</v>
-      </c>
-      <c r="F27" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G27" t="str">
-        <f>菜单SAAS版!$E$17</f>
-        <v>iam_menu-17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>371</v>
-      </c>
-      <c r="I27" t="s">
-        <v>372</v>
-      </c>
-      <c r="J27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10">
-      <c r="E28" t="s">
-        <v>384</v>
-      </c>
-      <c r="F28" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G28" t="str">
-        <f>菜单SAAS版!$E$19</f>
-        <v>iam_menu-19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>385</v>
-      </c>
-      <c r="I28" t="s">
-        <v>372</v>
-      </c>
-      <c r="J28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10">
-      <c r="E29" t="s">
-        <v>386</v>
-      </c>
-      <c r="F29" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G29" t="str">
-        <f>菜单SAAS版!$E$18</f>
-        <v>iam_menu-18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>371</v>
-      </c>
-      <c r="I29" t="s">
-        <v>372</v>
-      </c>
-      <c r="J29" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10">
-      <c r="E30" t="s">
-        <v>387</v>
-      </c>
-      <c r="F30" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="G30" t="str">
-        <f>菜单SAAS版!$E$14</f>
-        <v>iam_menu-14</v>
       </c>
       <c r="H30" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I30" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="J30" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="55" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="60">
         <v>44</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" t="s" s="61">
         <v>45</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" t="s" s="62">
         <v>9</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" t="s" s="63">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="59" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="64">
         <v>47</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" t="s" s="65">
         <v>48</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" t="s" s="66">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -8077,429 +7877,427 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="93" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s" s="98">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s" s="99">
         <v>54</v>
       </c>
-      <c r="F7" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>219</v>
+      <c r="F7" t="s" s="100">
+        <v>222</v>
+      </c>
+      <c r="G7" t="s" s="101">
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G9" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J9" t="s">
+        <v>397</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" t="s">
         <v>393</v>
       </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>83</v>
-      </c>
-      <c r="O9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="E10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" t="s">
-        <v>394</v>
-      </c>
-      <c r="G10" t="s">
-        <v>389</v>
-      </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G11" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K11" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="E12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J13" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K13" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J14" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K14" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F15" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G15" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J15" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K15" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G16" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J16" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K16" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J17" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K17" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G18" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J18" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K18" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F19" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K19" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/scriptbackup/db/init-data/hrds_code_repo/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="28800" windowHeight="13200" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
-    <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
-    <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
-    <sheet name="角色" r:id="rId8" sheetId="5"/>
-    <sheet name="角色标签数据" r:id="rId9" sheetId="6"/>
+    <sheet name="菜单SAAS版" sheetId="2" r:id="rId2"/>
+    <sheet name="菜单权限" sheetId="3" r:id="rId3"/>
+    <sheet name="菜单标签数据" sheetId="4" r:id="rId4"/>
+    <sheet name="角色" sheetId="5" r:id="rId5"/>
+    <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -56,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -69,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -88,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -107,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -126,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -158,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -177,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -196,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -218,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -239,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -260,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -281,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -302,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -314,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -333,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -345,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -364,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -383,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -402,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -421,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -469,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -488,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -507,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -526,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -538,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -557,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -576,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -596,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -615,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -635,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -654,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -666,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -685,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -704,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -728,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -747,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -766,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -785,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -804,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -816,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -835,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -846,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -867,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -878,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -897,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -916,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -940,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -959,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -979,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -999,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1019,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1040,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1060,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1095,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1116,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1128,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1147,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1168,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1187,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1200,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1219,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1238,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1257,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1272,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1291,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1310,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1329,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1348,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1364,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1374,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1393,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1409,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1419,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1438,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1453,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1491,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1511,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1535,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1554,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1573,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1593,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1614,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1625,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1635,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1647,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1666,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1685,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1704,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1724,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1743,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1762,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1782,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1801,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1820,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1839,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1859,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1871,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1882,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1892,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1904,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1923,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1935,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1954,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1974,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2507,6 +2396,12 @@
   </si>
   <si>
     <t>hrds-code-repo.rdm-tag.updateProtectedTag</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-52</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-org.export</t>
   </si>
   <si>
     <t>标签表</t>
@@ -3121,9 +3016,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="88">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3132,9 +3032,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3156,44 +3092,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3214,390 +3267,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3623,8 +3342,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3636,12 +3541,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3666,6 +3587,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3674,26 +3608,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3708,15 +3622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3725,13 +3630,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3740,139 +3892,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3945,9 +4074,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4205,285 +4331,290 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5526315789474" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3289473684211" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1118421052632" customWidth="1"/>
+    <col min="4" max="4" width="35.3289473684211" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5526315789474" customWidth="1"/>
+    <col min="6" max="6" width="23.4407894736842" customWidth="1"/>
+    <col min="7" max="7" width="21.5526315789474" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5526315789474" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1118421052632" customWidth="1"/>
+    <col min="12" max="12" width="18.5526315789474" customWidth="1"/>
+    <col min="13" max="13" width="13.1118421052632" customWidth="1"/>
+    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" ht="46" spans="3:5">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4493,13 +4624,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="67">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="68">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="69">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -4511,10 +4642,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="70">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="71">
+      <c r="K7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -4535,7 +4666,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="72">
+      <c r="R7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -4560,7 +4691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4607,7 +4738,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -4623,8 +4754,9 @@
       <c r="J9" t="s">
         <v>78</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
         <f>菜单SAAS版!$E$8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L9" t="s">
         <v>87</v>
@@ -4660,7 +4792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -4676,8 +4808,9 @@
       <c r="J10" t="s">
         <v>78</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L10" t="s">
         <v>95</v>
@@ -4710,7 +4843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -4726,8 +4859,9 @@
       <c r="J11" t="s">
         <v>78</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="str">
         <f>菜单SAAS版!$E$9</f>
+        <v>iam_menu-9</v>
       </c>
       <c r="L11" t="s">
         <v>95</v>
@@ -4757,7 +4891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -4804,7 +4938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>106</v>
       </c>
@@ -4820,8 +4954,9 @@
       <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
         <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="L13" t="s">
         <v>87</v>
@@ -4857,7 +4992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>113</v>
       </c>
@@ -4873,8 +5008,9 @@
       <c r="J14" t="s">
         <v>78</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="str">
         <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="L14" t="s">
         <v>95</v>
@@ -4907,7 +5043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>116</v>
       </c>
@@ -4954,7 +5090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>119</v>
       </c>
@@ -4970,8 +5106,9 @@
       <c r="J16" t="s">
         <v>78</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="str">
         <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-15</v>
       </c>
       <c r="L16" t="s">
         <v>87</v>
@@ -5007,7 +5144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:24">
       <c r="E17" t="s">
         <v>123</v>
       </c>
@@ -5023,8 +5160,9 @@
       <c r="J17" t="s">
         <v>78</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="L17" t="s">
         <v>95</v>
@@ -5057,7 +5195,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:24">
       <c r="E18" t="s">
         <v>126</v>
       </c>
@@ -5073,8 +5211,9 @@
       <c r="J18" t="s">
         <v>78</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="L18" t="s">
         <v>95</v>
@@ -5104,7 +5243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:24">
       <c r="E19" t="s">
         <v>130</v>
       </c>
@@ -5120,8 +5259,9 @@
       <c r="J19" t="s">
         <v>78</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="str">
         <f>菜单SAAS版!$E$16</f>
+        <v>iam_menu-16</v>
       </c>
       <c r="L19" t="s">
         <v>95</v>
@@ -5152,44 +5292,53 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="21.2631578947368" customWidth="1"/>
+    <col min="6" max="6" width="17.5394736842105" customWidth="1"/>
+    <col min="7" max="7" width="30.3684210526316" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5199,542 +5348,602 @@
       <c r="C7" t="s">
         <v>134</v>
       </c>
-      <c r="D7" t="s" s="73">
+      <c r="D7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E7" t="s" s="74">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="75">
+      <c r="F7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G7" t="s" s="76">
+      <c r="G7" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>138</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>140</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>142</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>144</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>146</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="str">
         <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="G12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>150</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>152</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>154</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:7">
       <c r="E17" t="s">
         <v>156</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:7">
       <c r="E18" t="s">
         <v>158</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>160</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="str">
         <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
       </c>
       <c r="G19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>162</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:7">
       <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>165</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>167</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>169</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:7">
       <c r="E25" t="s">
         <v>171</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:7">
       <c r="E26" t="s">
         <v>173</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G26" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:7">
       <c r="E27" t="s">
         <v>175</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G27" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:7">
       <c r="E28" t="s">
         <v>176</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:7">
       <c r="E29" t="s">
         <v>177</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:7">
       <c r="E30" t="s">
         <v>179</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G30" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:7">
       <c r="E31" t="s">
         <v>181</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G31" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:7">
       <c r="E32" t="s">
         <v>183</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:7">
       <c r="E33" t="s">
         <v>185</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:7">
       <c r="E34" t="s">
         <v>187</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:7">
       <c r="E35" t="s">
         <v>189</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:7">
       <c r="E36" t="s">
         <v>191</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G36" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:7">
       <c r="E37" t="s">
         <v>192</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="5:7">
       <c r="E38" t="s">
         <v>193</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G38" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="5:7">
       <c r="E39" t="s">
         <v>195</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G39" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="5:7">
       <c r="E40" t="s">
         <v>197</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G40" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="5:7">
       <c r="E41" t="s">
         <v>199</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G41" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="5:7">
       <c r="E42" t="s">
         <v>201</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="5:7">
       <c r="E43" t="s">
         <v>203</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G43" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="5:7">
       <c r="E44" t="s">
         <v>205</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G44" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="5:7">
       <c r="E45" t="s">
         <v>207</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G45" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="5:7">
       <c r="E46" t="s">
         <v>208</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G46" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="5:7">
       <c r="E47" t="s">
         <v>210</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G47" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="5:7">
       <c r="E48" t="s">
         <v>212</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G48" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="5:7">
       <c r="E49" t="s">
         <v>214</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G49" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="5:7">
       <c r="E50" t="s">
         <v>216</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="5:7">
       <c r="E51" t="s">
         <v>218</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="str">
         <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
       </c>
       <c r="G51" t="s">
         <v>219</v>
       </c>
     </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" s="5" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="47">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="48">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="49">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="51">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="52">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -5742,98 +5951,98 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" t="s" s="77">
-        <v>221</v>
-      </c>
-      <c r="E7" t="s" s="78">
+        <v>222</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="79">
-        <v>222</v>
-      </c>
-      <c r="G7" t="s" s="80">
-        <v>223</v>
+      <c r="F7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" t="s">
         <v>235</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" t="s">
         <v>236</v>
       </c>
-      <c r="K8" t="s">
-        <v>233</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>237</v>
       </c>
-      <c r="F9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>235</v>
-      </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -5845,21 +6054,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5871,53 +6080,53 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>237</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
         <v>244</v>
       </c>
-      <c r="G11" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>235</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>242</v>
-      </c>
       <c r="J12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -5929,24 +6138,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -5958,24 +6167,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -5987,24 +6196,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -6016,24 +6225,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -6045,27 +6254,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -6077,27 +6286,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -6109,27 +6318,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K19" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6141,21 +6350,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6167,27 +6376,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M21" t="s">
         <v>79</v>
@@ -6199,27 +6408,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" t="s">
         <v>79</v>
@@ -6231,27 +6440,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G23" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M23" t="s">
         <v>79</v>
@@ -6263,21 +6472,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s">
         <v>79</v>
@@ -6289,24 +6498,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F25" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s">
         <v>79</v>
@@ -6318,24 +6527,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s">
         <v>79</v>
@@ -6347,27 +6556,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:15">
       <c r="E27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F27" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H27" t="s">
         <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s">
         <v>79</v>
@@ -6379,27 +6588,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:15">
       <c r="E28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H28" t="s">
         <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M28" t="s">
         <v>79</v>
@@ -6411,27 +6620,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:15">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H29" t="s">
         <v>82</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K29" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s">
         <v>79</v>
@@ -6443,7 +6652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -6451,576 +6660,640 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D31" t="s" s="81">
-        <v>298</v>
-      </c>
-      <c r="E31" t="s" s="82">
         <v>299</v>
       </c>
-      <c r="F31" t="s" s="83">
+      <c r="D31" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G31" t="s" s="84">
+      <c r="E31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H31" t="s" s="85">
+      <c r="F31" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="G31" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="I31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
-      </c>
-      <c r="G32">
+        <v>236</v>
+      </c>
+      <c r="G32" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H32">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H32" t="str">
         <f>菜单标签数据!$E$11</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
-      </c>
-      <c r="G33">
+        <v>236</v>
+      </c>
+      <c r="G33" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H33">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H33" t="str">
         <f>菜单标签数据!$E$24</f>
+        <v>iam_label-24</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F34" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34">
+        <v>236</v>
+      </c>
+      <c r="G34" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H34">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H34" t="str">
         <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
-      </c>
-      <c r="G35">
+        <v>236</v>
+      </c>
+      <c r="G35" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H35">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H35" t="str">
         <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F36" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36">
+        <v>236</v>
+      </c>
+      <c r="G36" t="str">
         <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H36">
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H36" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F37" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37">
+        <v>236</v>
+      </c>
+      <c r="G37" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H37">
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H37" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F38" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38">
+        <v>236</v>
+      </c>
+      <c r="G38" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H38">
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H38" t="str">
         <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39">
+        <v>236</v>
+      </c>
+      <c r="G39" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H39">
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H39" t="str">
         <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
-      </c>
-      <c r="G40">
+        <v>236</v>
+      </c>
+      <c r="G40" t="str">
         <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H40">
+        <v>iam_menu-8</v>
+      </c>
+      <c r="H40" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F41" t="s">
-        <v>234</v>
-      </c>
-      <c r="G41">
+        <v>236</v>
+      </c>
+      <c r="G41" t="str">
         <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H41">
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H41" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>304</v>
-      </c>
       <c r="F42" t="s">
-        <v>234</v>
-      </c>
-      <c r="G42">
+        <v>236</v>
+      </c>
+      <c r="G42" t="str">
         <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H42">
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H42" t="str">
         <f>菜单标签数据!$E$19</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43">
+        <v>236</v>
+      </c>
+      <c r="G43" t="str">
         <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H43">
+        <v>iam_menu-9</v>
+      </c>
+      <c r="H43" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F44" t="s">
-        <v>234</v>
-      </c>
-      <c r="G44">
+        <v>236</v>
+      </c>
+      <c r="G44" t="str">
         <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H44">
+        <v>iam_menu-10</v>
+      </c>
+      <c r="H44" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9">
+      <c r="E45" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>304</v>
-      </c>
       <c r="F45" t="s">
-        <v>234</v>
-      </c>
-      <c r="G45">
+        <v>236</v>
+      </c>
+      <c r="G45" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H45">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H45" t="str">
         <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9">
+      <c r="E46" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>304</v>
-      </c>
       <c r="F46" t="s">
-        <v>234</v>
-      </c>
-      <c r="G46">
+        <v>236</v>
+      </c>
+      <c r="G46" t="str">
         <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H46">
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H46" t="str">
         <f>菜单标签数据!$E$19</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9">
+      <c r="E47" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>304</v>
-      </c>
       <c r="F47" t="s">
-        <v>234</v>
-      </c>
-      <c r="G47">
+        <v>236</v>
+      </c>
+      <c r="G47" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H47">
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H47" t="str">
         <f>菜单标签数据!$E$11</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I47" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
-        <v>234</v>
-      </c>
-      <c r="G48">
+        <v>236</v>
+      </c>
+      <c r="G48" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H48">
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H48" t="str">
         <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I48" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
-      </c>
-      <c r="G49">
+        <v>236</v>
+      </c>
+      <c r="G49" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H49">
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H49" t="str">
         <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I49" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
-      </c>
-      <c r="G50">
+        <v>236</v>
+      </c>
+      <c r="G50" t="str">
         <f>菜单SAAS版!$E$13</f>
-      </c>
-      <c r="H50">
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H50" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I50" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51">
+        <v>236</v>
+      </c>
+      <c r="G51" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H51">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H51" t="str">
         <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I51" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52">
+        <v>236</v>
+      </c>
+      <c r="G52" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H52">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H52" t="str">
         <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I52" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
-      </c>
-      <c r="G53">
+        <v>236</v>
+      </c>
+      <c r="G53" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H53">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H53" t="str">
         <f>菜单标签数据!$E$15</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F54" t="s">
-        <v>234</v>
-      </c>
-      <c r="G54">
+        <v>236</v>
+      </c>
+      <c r="G54" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H54">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H54" t="str">
         <f>菜单标签数据!$E$16</f>
+        <v>iam_label-16</v>
       </c>
       <c r="I54" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
-      </c>
-      <c r="G55">
+        <v>236</v>
+      </c>
+      <c r="G55" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H55">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H55" t="str">
         <f>菜单标签数据!$E$17</f>
+        <v>iam_label-17</v>
       </c>
       <c r="I55" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
-      </c>
-      <c r="G56">
+        <v>236</v>
+      </c>
+      <c r="G56" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H56">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H56" t="str">
         <f>菜单标签数据!$E$27</f>
+        <v>iam_label-27</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
-      </c>
-      <c r="G57">
+        <v>236</v>
+      </c>
+      <c r="G57" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H57">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H57" t="str">
         <f>菜单标签数据!$E$28</f>
+        <v>iam_label-28</v>
       </c>
       <c r="I57" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
-      </c>
-      <c r="G58">
+        <v>236</v>
+      </c>
+      <c r="G58" t="str">
         <f>菜单SAAS版!$E$15</f>
-      </c>
-      <c r="H58">
+        <v>iam_menu-15</v>
+      </c>
+      <c r="H58" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I58" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F59" t="s">
-        <v>234</v>
-      </c>
-      <c r="G59">
+        <v>236</v>
+      </c>
+      <c r="G59" t="str">
         <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="H59">
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H59" t="str">
         <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I59" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F60" t="s">
-        <v>234</v>
-      </c>
-      <c r="G60">
+        <v>236</v>
+      </c>
+      <c r="G60" t="str">
         <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="H60">
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H60" t="str">
         <f>菜单标签数据!$E$17</f>
+        <v>iam_label-17</v>
       </c>
       <c r="I60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
-      </c>
-      <c r="G61">
+        <v>236</v>
+      </c>
+      <c r="G61" t="str">
         <f>菜单SAAS版!$E$16</f>
-      </c>
-      <c r="H61">
+        <v>iam_menu-16</v>
+      </c>
+      <c r="H61" t="str">
         <f>菜单标签数据!$E$29</f>
+        <v>iam_label-29</v>
       </c>
       <c r="I61" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="54">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="55">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="56">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="58">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="59">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7028,12 +7301,12 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D7" t="s" s="86">
-        <v>308</v>
-      </c>
-      <c r="E7" t="s" s="87">
+        <v>309</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -7042,79 +7315,79 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="88">
+      <c r="H7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K7" t="s" s="89">
+        <v>227</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M7" t="s" s="90">
-        <v>311</v>
-      </c>
-      <c r="N7" t="s" s="91">
         <v>312</v>
       </c>
+      <c r="M7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="O7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="R7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="S7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>319</v>
-      </c>
-      <c r="W7" t="s" s="92">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="X7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Y7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K8" t="s">
         <v>79</v>
@@ -7147,30 +7420,30 @@
         <v>79</v>
       </c>
       <c r="U8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="V8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="W8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J9" t="s">
         <v>78</v>
@@ -7206,27 +7479,27 @@
         <v>79</v>
       </c>
       <c r="U9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="V9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
@@ -7237,8 +7510,9 @@
       <c r="L10" t="s">
         <v>79</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
         <v>78</v>
@@ -7262,10 +7536,10 @@
         <v>79</v>
       </c>
       <c r="U10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="V10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="W10" t="s">
         <v>79</v>
@@ -7274,21 +7548,21 @@
         <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
@@ -7299,8 +7573,9 @@
       <c r="L11" t="s">
         <v>79</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
         <v>78</v>
@@ -7324,33 +7599,33 @@
         <v>79</v>
       </c>
       <c r="U11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="V11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W11" t="s">
         <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -7361,8 +7636,9 @@
       <c r="L12" t="s">
         <v>79</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
         <v>78</v>
@@ -7386,10 +7662,10 @@
         <v>79</v>
       </c>
       <c r="U12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="V12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="W12" t="s">
         <v>79</v>
@@ -7398,21 +7674,21 @@
         <v>132</v>
       </c>
       <c r="Y12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
@@ -7423,8 +7699,9 @@
       <c r="L13" t="s">
         <v>79</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="str">
         <f>角色!$E$9</f>
+        <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
         <v>78</v>
@@ -7448,10 +7725,10 @@
         <v>79</v>
       </c>
       <c r="U13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="V13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W13" t="s">
         <v>79</v>
@@ -7460,24 +7737,24 @@
         <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23">
       <c r="E14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H14" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
@@ -7485,8 +7762,9 @@
       <c r="L14" t="s">
         <v>79</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="str">
         <f>角色!$E$8</f>
+        <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
         <v>78</v>
@@ -7510,16 +7788,16 @@
         <v>79</v>
       </c>
       <c r="U14" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="V14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="W14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -7527,349 +7805,381 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
-      </c>
-      <c r="D16" t="s" s="93">
-        <v>369</v>
-      </c>
-      <c r="E16" t="s" s="94">
+        <v>370</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s" s="95">
-        <v>370</v>
-      </c>
-      <c r="G16" t="s" s="96">
-        <v>371</v>
+      <c r="F16" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
-      </c>
-      <c r="J16" t="s" s="97">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>375</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>374</v>
-      </c>
-      <c r="F17">
+        <v>376</v>
+      </c>
+      <c r="F17" t="str">
         <f>角色!$E$10</f>
-      </c>
-      <c r="G17">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G17" t="str">
         <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-10</v>
       </c>
       <c r="H17" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I17" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
+        <f>菜单SAAS版!$E$11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H18" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>378</v>
       </c>
-      <c r="F18">
+      <c r="J18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" t="str">
         <f>角色!$E$10</f>
-      </c>
-      <c r="G18">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H18" t="s">
-        <v>375</v>
-      </c>
-      <c r="I18" t="s">
-        <v>376</v>
-      </c>
-      <c r="J18" t="s">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G19" t="str">
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H19" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
+      <c r="I19" t="s">
+        <v>378</v>
+      </c>
+      <c r="J19" t="s">
         <v>379</v>
       </c>
-      <c r="F19">
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" t="str">
         <f>角色!$E$10</f>
-      </c>
-      <c r="G19">
+        <v>iam_role-10</v>
+      </c>
+      <c r="G20" t="str">
+        <f>菜单SAAS版!$E$18</f>
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>377</v>
+      </c>
+      <c r="I20" t="s">
+        <v>378</v>
+      </c>
+      <c r="J20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>377</v>
+      </c>
+      <c r="I21" t="s">
+        <v>378</v>
+      </c>
+      <c r="J21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>377</v>
+      </c>
+      <c r="I22" t="s">
+        <v>378</v>
+      </c>
+      <c r="J22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" t="str">
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>377</v>
+      </c>
+      <c r="I23" t="s">
+        <v>378</v>
+      </c>
+      <c r="J23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G24" t="str">
         <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H19" t="s">
-        <v>375</v>
-      </c>
-      <c r="I19" t="s">
-        <v>376</v>
-      </c>
-      <c r="J19" t="s">
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H24" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>380</v>
-      </c>
-      <c r="F20">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G20">
+      <c r="I24" t="s">
+        <v>378</v>
+      </c>
+      <c r="J24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="E25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G25" t="str">
+        <f>菜单SAAS版!$E$19</f>
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>377</v>
+      </c>
+      <c r="I25" t="s">
+        <v>378</v>
+      </c>
+      <c r="J25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10">
+      <c r="E26" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G26" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>377</v>
+      </c>
+      <c r="I26" t="s">
+        <v>378</v>
+      </c>
+      <c r="J26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" t="s">
+        <v>389</v>
+      </c>
+      <c r="F27" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G27" t="str">
+        <f>菜单SAAS版!$E$17</f>
+        <v>iam_menu-17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I27" t="s">
+        <v>378</v>
+      </c>
+      <c r="J27" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10">
+      <c r="E28" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G28" t="str">
         <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="H20" t="s">
-        <v>375</v>
-      </c>
-      <c r="I20" t="s">
-        <v>376</v>
-      </c>
-      <c r="J20" t="s">
+        <v>iam_menu-18</v>
+      </c>
+      <c r="H28" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>381</v>
-      </c>
-      <c r="F21">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G21">
+      <c r="I28" t="s">
+        <v>378</v>
+      </c>
+      <c r="J28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10">
+      <c r="E29" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G29" t="str">
         <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H21" t="s">
-        <v>375</v>
-      </c>
-      <c r="I21" t="s">
-        <v>376</v>
-      </c>
-      <c r="J21" t="s">
+        <v>iam_menu-19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>392</v>
+      </c>
+      <c r="I29" t="s">
+        <v>378</v>
+      </c>
+      <c r="J29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" t="s">
+        <v>393</v>
+      </c>
+      <c r="F30" t="str">
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G30" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-14</v>
+      </c>
+      <c r="H30" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F22">
-        <f>角色!$E$10</f>
-      </c>
-      <c r="G22">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H22" t="s">
-        <v>375</v>
-      </c>
-      <c r="I22" t="s">
-        <v>376</v>
-      </c>
-      <c r="J22" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>383</v>
-      </c>
-      <c r="F23">
-        <f>角色!$E$11</f>
-      </c>
-      <c r="G23">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H23" t="s">
-        <v>375</v>
-      </c>
-      <c r="I23" t="s">
-        <v>376</v>
-      </c>
-      <c r="J23" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>384</v>
-      </c>
-      <c r="F24">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G24">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H24" t="s">
-        <v>375</v>
-      </c>
-      <c r="I24" t="s">
-        <v>376</v>
-      </c>
-      <c r="J24" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>385</v>
-      </c>
-      <c r="F25">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G25">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H25" t="s">
-        <v>375</v>
-      </c>
-      <c r="I25" t="s">
-        <v>376</v>
-      </c>
-      <c r="J25" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26">
-        <f>角色!$E$12</f>
-      </c>
-      <c r="G26">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H26" t="s">
-        <v>375</v>
-      </c>
-      <c r="I26" t="s">
-        <v>376</v>
-      </c>
-      <c r="J26" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F27">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G27">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H27" t="s">
-        <v>375</v>
-      </c>
-      <c r="I27" t="s">
-        <v>376</v>
-      </c>
-      <c r="J27" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="s">
-        <v>388</v>
-      </c>
-      <c r="F28">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G28">
-        <f>菜单SAAS版!$E$18</f>
-      </c>
-      <c r="H28" t="s">
-        <v>375</v>
-      </c>
-      <c r="I28" t="s">
-        <v>376</v>
-      </c>
-      <c r="J28" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
-        <v>389</v>
-      </c>
-      <c r="F29">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G29">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H29" t="s">
-        <v>390</v>
-      </c>
-      <c r="I29" t="s">
-        <v>376</v>
-      </c>
-      <c r="J29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>391</v>
-      </c>
-      <c r="F30">
-        <f>角色!$E$13</f>
-      </c>
-      <c r="G30">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H30" t="s">
-        <v>375</v>
-      </c>
       <c r="I30" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J30" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="60">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="61">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="62">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="63">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="64">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="65">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="66">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -7877,127 +8187,127 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" t="s" s="98">
-        <v>221</v>
-      </c>
-      <c r="E7" t="s" s="99">
+        <v>222</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="100">
-        <v>222</v>
-      </c>
-      <c r="G7" t="s" s="101">
-        <v>223</v>
+      <c r="F7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K8" t="s">
+        <v>397</v>
+      </c>
+      <c r="M8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" t="s">
         <v>395</v>
       </c>
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J9" t="s">
+        <v>399</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
         <v>237</v>
       </c>
-      <c r="F9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G9" t="s">
-        <v>393</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" t="s">
-        <v>397</v>
-      </c>
-      <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" t="s">
-        <v>398</v>
-      </c>
-      <c r="G10" t="s">
-        <v>393</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>235</v>
-      </c>
       <c r="J10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M10" t="s">
         <v>79</v>
@@ -8009,27 +8319,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M11" t="s">
         <v>79</v>
@@ -8041,27 +8351,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M12" t="s">
         <v>79</v>
@@ -8073,27 +8383,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J13" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M13" t="s">
         <v>79</v>
@@ -8105,27 +8415,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M14" t="s">
         <v>79</v>
@@ -8137,27 +8447,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J15" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K15" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M15" t="s">
         <v>79</v>
@@ -8169,27 +8479,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J16" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M16" t="s">
         <v>79</v>
@@ -8201,27 +8511,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J17" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K17" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M17" t="s">
         <v>79</v>
@@ -8233,27 +8543,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J18" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K18" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M18" t="s">
         <v>79</v>
@@ -8265,27 +8575,27 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G19" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J19" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M19" t="s">
         <v>79</v>
@@ -8298,6 +8608,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>